--- a/Elektronica/Controller pin-toewijzingen.xlsx
+++ b/Elektronica/Controller pin-toewijzingen.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="71">
   <si>
     <t>TTGO</t>
   </si>
@@ -321,7 +321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -354,6 +354,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -657,12 +663,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="2" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7109375" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="6"/>
   </cols>
   <sheetData>
@@ -718,18 +725,18 @@
       <c r="E3" s="10">
         <v>36</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="10">
@@ -746,10 +753,10 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C5" s="10">
@@ -846,7 +853,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>52</v>
       </c>
       <c r="B10" s="10" t="s">
@@ -858,10 +865,10 @@
       <c r="E10" s="9">
         <v>26</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -876,10 +883,10 @@
       <c r="E11" s="9">
         <v>27</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -929,46 +936,44 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="B17" s="14"/>
       <c r="C17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="10" t="s">
-        <v>63</v>
-      </c>
+      <c r="G17" s="14"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="15"/>
+      <c r="C18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>64</v>
-      </c>
+      <c r="G18" s="15"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Elektronica/Controller pin-toewijzingen.xlsx
+++ b/Elektronica/Controller pin-toewijzingen.xlsx
@@ -203,9 +203,6 @@
     <t>Shift</t>
   </si>
   <si>
-    <t>Menu</t>
-  </si>
-  <si>
     <t>Nog testen</t>
   </si>
   <si>
@@ -221,13 +218,16 @@
     <t>BatMon</t>
   </si>
   <si>
-    <t>SH/LDn1</t>
-  </si>
-  <si>
-    <t>SH/LDn2</t>
-  </si>
-  <si>
-    <t>SH/LDn3</t>
+    <t>SH/LDn</t>
+  </si>
+  <si>
+    <t>Tmenu</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>NC</t>
   </si>
 </sst>
 </file>
@@ -321,7 +321,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,13 +353,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -745,16 +751,16 @@
       <c r="E4" s="10">
         <v>37</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>62</v>
+      <c r="F4" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="9" t="s">
-        <v>68</v>
+      <c r="A5" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>61</v>
@@ -773,11 +779,11 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="C6" s="10">
         <v>17</v>
@@ -786,18 +792,18 @@
         <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>61</v>
+      <c r="B7" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -814,7 +820,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>55</v>
@@ -936,36 +942,36 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="14"/>
+      <c r="A17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="15"/>
       <c r="C17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G18" s="15"/>
+      <c r="F18" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1007,23 +1013,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="11.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13" t="s">
+      <c r="B1" s="17"/>
+      <c r="D1" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">

--- a/Elektronica/Controller pin-toewijzingen.xlsx
+++ b/Elektronica/Controller pin-toewijzingen.xlsx
@@ -89,9 +89,6 @@
     <t>BTN_BTM_LFT</t>
   </si>
   <si>
-    <t>N/A or 23?</t>
-  </si>
-  <si>
     <t>https://randomnerdtutorials.com/esp32-pinout-reference-gpios/</t>
   </si>
   <si>
@@ -228,6 +225,10 @@
   </si>
   <si>
     <t>NC</t>
+  </si>
+  <si>
+    <t>N/A (website)
+23 (schematic)</t>
   </si>
 </sst>
 </file>
@@ -321,7 +322,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -367,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -681,25 +685,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -714,7 +718,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G2" s="9" t="s">
         <v>19</v>
@@ -732,18 +736,18 @@
         <v>36</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="10">
         <v>21</v>
@@ -752,18 +756,18 @@
         <v>37</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C5" s="10">
         <v>22</v>
@@ -772,18 +776,18 @@
         <v>38</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="10">
         <v>17</v>
@@ -792,18 +796,18 @@
         <v>39</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" s="10">
         <v>2</v>
@@ -812,18 +816,18 @@
         <v>32</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10">
         <v>15</v>
@@ -832,18 +836,18 @@
         <v>33</v>
       </c>
       <c r="F8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>55</v>
       </c>
       <c r="C9" s="9">
         <v>13</v>
@@ -852,18 +856,18 @@
         <v>25</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C10" s="10">
         <v>12</v>
@@ -872,10 +876,10 @@
         <v>26</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -890,10 +894,10 @@
         <v>27</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -935,41 +939,41 @@
     </row>
     <row r="16" spans="1:7">
       <c r="C16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B17" s="15"/>
       <c r="C17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G18" s="16"/>
     </row>
@@ -990,13 +994,13 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:H1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="171.28515625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="7.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.5703125" style="2" bestFit="1" customWidth="1"/>
@@ -1014,18 +1018,18 @@
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="11.25">
       <c r="A1" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B1" s="17"/>
       <c r="D1" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="17"/>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
       <c r="J1" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
@@ -1044,16 +1048,16 @@
       </c>
       <c r="G2" s="3"/>
       <c r="J2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="M2" s="4" t="s">
         <v>28</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1079,13 +1083,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1108,13 +1112,13 @@
         <v>1</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1137,13 +1141,13 @@
         <v>2</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1166,21 +1170,21 @@
         <v>3</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:13" ht="42">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+      <c r="B7" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="E7" s="3">
         <v>17</v>
@@ -1192,10 +1196,10 @@
         <v>4</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="5"/>
     </row>
@@ -1216,13 +1220,13 @@
         <v>5</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1242,13 +1246,13 @@
         <v>6</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1268,13 +1272,13 @@
         <v>7</v>
       </c>
       <c r="K10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1294,13 +1298,13 @@
         <v>8</v>
       </c>
       <c r="K11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M11" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1323,13 +1327,13 @@
         <v>9</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M12" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1355,13 +1359,13 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1387,13 +1391,13 @@
         <v>11</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1404,13 +1408,13 @@
         <v>12</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L15" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1418,10 +1422,10 @@
         <v>13</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="5"/>
     </row>
@@ -1430,13 +1434,13 @@
         <v>14</v>
       </c>
       <c r="K17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="18" spans="10:13">
@@ -1444,13 +1448,13 @@
         <v>15</v>
       </c>
       <c r="K18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="5" t="s">
         <v>31</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="19" spans="10:13">
@@ -1458,10 +1462,10 @@
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L19" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M19" s="5"/>
     </row>
@@ -1470,10 +1474,10 @@
         <v>17</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L20" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M20" s="5"/>
     </row>
@@ -1482,10 +1486,10 @@
         <v>18</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L21" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M21" s="5"/>
     </row>
@@ -1494,10 +1498,10 @@
         <v>19</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L22" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M22" s="5"/>
     </row>
@@ -1506,10 +1510,10 @@
         <v>21</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L23" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M23" s="5"/>
     </row>
@@ -1518,10 +1522,10 @@
         <v>22</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M24" s="5"/>
     </row>
@@ -1530,10 +1534,10 @@
         <v>23</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M25" s="5"/>
     </row>
@@ -1542,10 +1546,10 @@
         <v>25</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L26" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M26" s="5"/>
     </row>
@@ -1554,10 +1558,10 @@
         <v>26</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M27" s="5"/>
     </row>
@@ -1566,10 +1570,10 @@
         <v>27</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28" s="5"/>
     </row>
@@ -1578,10 +1582,10 @@
         <v>32</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L29" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M29" s="5"/>
     </row>
@@ -1590,10 +1594,10 @@
         <v>33</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M30" s="5"/>
     </row>
@@ -1602,11 +1606,11 @@
         <v>34</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L31" s="5"/>
       <c r="M31" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="10:13">
@@ -1614,11 +1618,11 @@
         <v>35</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L32" s="5"/>
       <c r="M32" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="10:13">
@@ -1626,11 +1630,11 @@
         <v>36</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="10:13">
@@ -1638,11 +1642,11 @@
         <v>39</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
